--- a/API/report/excelReport/APITestCase.xlsx
+++ b/API/report/excelReport/APITestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21045" windowHeight="12240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -66,29 +66,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -120,6 +97,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -138,30 +138,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +167,30 @@
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +231,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,30 +274,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,24 +304,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +370,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,26 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -537,6 +517,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -545,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -557,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,9 +707,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,6 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1082,16 +1082,1015 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="36.25" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.25" customWidth="1" style="1" min="5" max="5"/>
+    <col width="21.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11" customWidth="1" style="1" min="7" max="7"/>
+    <col width="28" customWidth="1" style="1" min="8" max="8"/>
+    <col width="12.875" customWidth="1" style="2" min="9" max="9"/>
+    <col width="12.125" customWidth="1" style="2" min="10" max="10"/>
+    <col width="24.125" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10.25" customWidth="1" style="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" s="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>status_code</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> testers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" s="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_001</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>首页详情</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M2" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_002</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>首页详情缺少参数渠道号</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M3" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" s="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_003</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>首页详情缺少参数产品id</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M4" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" s="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_004</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>首页详情参数为空</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M5" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" s="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_005</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>首页详情产品id值为空</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" s="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_006</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>首页详情全部参数值为空</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"","channel":""}</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="7" t="n"/>
+      <c r="J7" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M7" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="43.5" customHeight="1" s="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_007</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>首页详情渠道号值为空</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":""}</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M8" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="55.5" customHeight="1" s="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_008</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>首页详情渠道号值为数字</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":"123"}</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M9" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" s="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_009</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>首页详情渠道号值为特殊符号</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":"%&amp;"}</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="7" t="n"/>
+      <c r="J10" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M10" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="52.5" customHeight="1" s="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_010</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>首页详情渠道号值为null</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":"null"}</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M11" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="51.75" customHeight="1" s="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_011</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>首页详情渠道号值为其他字母</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":"aslgfj"}</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M12" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="35.25" customHeight="1" s="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_012</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>首页详情产品id值为其他字母</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"gdfhd","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_013</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>首页详情产品id值为数字</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"2222","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="n"/>
+      <c r="L14" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M14" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" s="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_014</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>首页详情产品id值为特殊符号+其他混合</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"&amp;%^8","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="7" t="n"/>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="n"/>
+      <c r="L15" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M15" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" s="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_015</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>首页详情产品id值为null</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"null","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="7" t="n"/>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M16" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="26.25" customHeight="1" s="1">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_016</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>首页详情响应状态码非200判断</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing","channel":"test"}</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="n"/>
+      <c r="L17" s="15" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="M17" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="12" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="12" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="n"/>
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="12" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="n"/>
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="n"/>
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" s="12" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" s="12" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="n"/>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="12" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="n"/>
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="n"/>
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" s="12" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="n"/>
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" s="12" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="n"/>
+      <c r="B31" s="12" t="n"/>
+      <c r="C31" s="12" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="n"/>
+      <c r="B32" s="12" t="n"/>
+      <c r="C32" s="12" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="n"/>
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" s="12" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="n"/>
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" s="12" t="n"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M17"/>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="26.25" customWidth="1" style="1" min="2" max="2"/>
     <col width="14.625" customWidth="1" style="1" min="3" max="3"/>
     <col width="36.25" customWidth="1" style="1" min="4" max="4"/>
     <col width="8.25" customWidth="1" style="1" min="5" max="5"/>
@@ -1117,7 +2116,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>UseCase</t>
+          <t>case_name</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -1174,12 +2173,12 @@
     <row r="2" ht="30" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>结果页</t>
+          <t>听芝心理-人格原型</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>event_query_001</t>
+          <t>tingzhixinli_rgyx_001</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1204,8 +2203,8 @@
       </c>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="6" t="n"/>
-      <c r="I2" s="8" t="n"/>
-      <c r="J2" s="9" t="n">
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="n">
         <v>200</v>
       </c>
       <c r="K2" s="6" t="inlineStr">
@@ -1227,43 +2226,43 @@
     <row r="3" ht="30" customHeight="1" s="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>支付页</t>
+          <t>听芝心理-人格原型</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>event_query_002</t>
+          <t>tingzhixinli_rgyx_002</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>支付页文案</t>
+          <t>结果页详情响应msg错误</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>http://sandbox-xinli.fxz365.com/api/payments/config</t>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>{"order_id":"LJXL158641646009500020"}</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="9" t="n">
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="n">
         <v>200</v>
       </c>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>处理成功</t>
         </is>
       </c>
       <c r="L3" s="15" t="inlineStr">
@@ -1280,43 +2279,45 @@
     <row r="4" ht="30" customHeight="1" s="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>支付页提交</t>
+          <t>听芝心理-人格原型</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>event_query_003</t>
+          <t>tingzhixinli_rgyx_003</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>提交文案</t>
+          <t>结果页详情响应状态码错误</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>http://sandbox-xinli.fxz365.com/api/question</t>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>{"order_id":"LJXL158737864909500040",            "answers":'["A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","B","B","B","B","B","B","B","B","B","B","B","A"]'}</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="9" t="n">
-        <v>200</v>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>提交成功</t>
+          <t>获取成功</t>
         </is>
       </c>
       <c r="L4" s="15" t="inlineStr">
@@ -1331,310 +2332,1097 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" s="1">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="6" t="n"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_004</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情没有参数</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="6" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="9" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="K5" s="6" t="n"/>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" s="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="L5" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M5" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="43.5" customHeight="1" s="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_005</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数值都为空</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"","schannel":"","product_id":""}</t>
+        </is>
+      </c>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="9" t="n"/>
-      <c r="K6" s="6" t="n"/>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" s="1">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L6" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="55.5" customHeight="1" s="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_006</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数值都为null</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"null","schannel":"null","product_id":"null"}</t>
+        </is>
+      </c>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="6" t="n"/>
-      <c r="L7" s="6" t="n"/>
-      <c r="M7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="43.5" customHeight="1" s="1">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="I7" s="7" t="n"/>
+      <c r="J7" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L7" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M7" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" s="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_007</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数只有渠道号</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test"}</t>
+        </is>
+      </c>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
-      <c r="I8" s="8" t="n"/>
-      <c r="J8" s="9" t="n"/>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="K8" s="6" t="n"/>
-      <c r="L8" s="6" t="n"/>
-      <c r="M8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="55.5" customHeight="1" s="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="L8" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M8" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="52.5" customHeight="1" s="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_008</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数只有schannel</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>{"schannel":""}</t>
+        </is>
+      </c>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
-      <c r="I9" s="8" t="n"/>
-      <c r="J9" s="9" t="n"/>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="K9" s="6" t="n"/>
-      <c r="L9" s="6" t="n"/>
-      <c r="M9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="57" customHeight="1" s="1">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="L9" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M9" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="51.75" customHeight="1" s="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_009</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数只有产品id</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>{"product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="9" t="n"/>
+      <c r="I10" s="7" t="n"/>
+      <c r="J10" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
       <c r="K10" s="6" t="n"/>
-      <c r="L10" s="6" t="n"/>
-      <c r="M10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="52.5" customHeight="1" s="1">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="6" t="n"/>
+      <c r="L10" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M10" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="35.25" customHeight="1" s="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_010</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数只有渠道号和产品id</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="6" t="n"/>
-      <c r="I11" s="8" t="n"/>
-      <c r="J11" s="9" t="n"/>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
       <c r="K11" s="6" t="n"/>
-      <c r="L11" s="6" t="n"/>
-      <c r="M11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="51.75" customHeight="1" s="1">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="6" t="n"/>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M11" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_011</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数只有渠道号和schannel</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":""}</t>
+        </is>
+      </c>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
-      <c r="I12" s="8" t="n"/>
-      <c r="J12" s="9" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="K12" s="6" t="n"/>
-      <c r="L12" s="6" t="n"/>
-      <c r="M12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="35.25" customHeight="1" s="1">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="6" t="n"/>
+      <c r="L12" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M12" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_012</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情参数只有schannel和产品id</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>{"schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
-      <c r="I13" s="8" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="6" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K13" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="1">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="6" t="n"/>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_013</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情渠道号参数值为数字</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"123","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="6" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" s="1">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L14" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M14" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="26.25" customHeight="1" s="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_014</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情渠道号参数值为特殊符号</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"￥#……DFg","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" s="1">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="I15" s="7" t="n"/>
+      <c r="J15" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L15" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M15" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="26.25" customHeight="1" s="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_015</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情schannel参数值为数字</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"12454","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
-      <c r="I16" s="8" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
+      <c r="I16" s="7" t="n"/>
+      <c r="J16" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L16" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M16" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="26.25" customHeight="1" s="1">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="6" t="n"/>
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_016</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情schannel参数值为特殊符号</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"#￥……","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
-      <c r="I17" s="8" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n"/>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n"/>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n"/>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n"/>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="n"/>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="n"/>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="n"/>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="n"/>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L17" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M17" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="26.25" customHeight="1" s="1">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_017</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情schannel参数值为字母</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"dshd","product_id":"ren_ge_yuan_xing"}</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="7" t="n"/>
+      <c r="J18" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L18" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M18" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="26.25" customHeight="1" s="1">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_018</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情产品id参数值为字母</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"","product_id":"ghhf"}</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L19" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M19" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="26.25" customHeight="1" s="1">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_019</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情产品id参数值为数字</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"","product_id":"1235"}</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="7" t="n"/>
+      <c r="J20" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L20" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M20" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="1">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>听芝心理-人格原型</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>tingzhixinli_rgyx_020</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>结果页详情产品id参数值为特殊符号</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>{"channel":"test","schannel":"","product_id":"%*^&amp;"}</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="7" t="n"/>
+      <c r="J21" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>获取成功</t>
+        </is>
+      </c>
+      <c r="L21" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M21" s="14" t="inlineStr">
+        <is>
+          <t>归乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="26.25" customHeight="1" s="1">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="n"/>
+      <c r="I22" s="7" t="n"/>
+      <c r="J22" s="8" t="n"/>
+      <c r="K22" s="6" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="26.25" customHeight="1" s="1">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="7" t="n"/>
+      <c r="J23" s="8" t="n"/>
+      <c r="K23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="26.25" customHeight="1" s="1">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" s="7" t="n"/>
+      <c r="J24" s="8" t="n"/>
+      <c r="K24" s="5" t="n"/>
+      <c r="L24" s="5" t="n"/>
+      <c r="M24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="26.25" customHeight="1" s="1">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
+      <c r="I25" s="7" t="n"/>
+      <c r="J25" s="8" t="n"/>
+      <c r="K25" s="5" t="n"/>
+      <c r="L25" s="5" t="n"/>
+      <c r="M25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="26.25" customHeight="1" s="1">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="n"/>
+      <c r="I26" s="7" t="n"/>
+      <c r="J26" s="8" t="n"/>
+      <c r="K26" s="5" t="n"/>
+      <c r="L26" s="5" t="n"/>
+      <c r="M26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="26.25" customHeight="1" s="1">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
+      <c r="I27" s="7" t="n"/>
+      <c r="J27" s="8" t="n"/>
+      <c r="K27" s="5" t="n"/>
+      <c r="L27" s="5" t="n"/>
+      <c r="M27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="26.25" customHeight="1" s="1">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
+      <c r="I28" s="7" t="n"/>
+      <c r="J28" s="8" t="n"/>
+      <c r="K28" s="5" t="n"/>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="26.25" customHeight="1" s="1">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="7" t="n"/>
+      <c r="J29" s="8" t="n"/>
+      <c r="K29" s="5" t="n"/>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="26.25" customHeight="1" s="1">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="7" t="n"/>
+      <c r="J30" s="8" t="n"/>
+      <c r="K30" s="5" t="n"/>
+      <c r="L30" s="5" t="n"/>
+      <c r="M30" s="5" t="n"/>
+    </row>
+    <row r="31" ht="26.25" customHeight="1" s="1">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="6" t="n"/>
+      <c r="I31" s="7" t="n"/>
+      <c r="J31" s="8" t="n"/>
+      <c r="K31" s="5" t="n"/>
+      <c r="L31" s="5" t="n"/>
+      <c r="M31" s="5" t="n"/>
+    </row>
+    <row r="32" ht="26.25" customHeight="1" s="1">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="4" t="n"/>
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
+      <c r="I32" s="7" t="n"/>
+      <c r="J32" s="8" t="n"/>
+      <c r="K32" s="5" t="n"/>
+      <c r="L32" s="5" t="n"/>
+      <c r="M32" s="5" t="n"/>
+    </row>
+    <row r="33" ht="26.25" customHeight="1" s="1">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="4" t="n"/>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="4" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="6" t="n"/>
+      <c r="I33" s="7" t="n"/>
+      <c r="J33" s="8" t="n"/>
+      <c r="K33" s="5" t="n"/>
+      <c r="L33" s="5" t="n"/>
+      <c r="M33" s="5" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M17"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" display="http://sandbox-xinli.fxz365.com/api/question" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" r:id="rId20"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
